--- a/documentation/mapa.xlsx
+++ b/documentation/mapa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\paginaweb-github\Pagina-web\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\paginaweb-github\Pagina-web\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,8 +25,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,8 +62,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,7 +892,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES"/>
-            <a:t>LooKiero!</a:t>
+            <a:t>LOoKiero!</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1168,6 +1177,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{81AE46AD-1A9B-4F64-BD85-8148FF5C6CFF}" type="pres">
       <dgm:prSet presAssocID="{E1749B6D-43CE-484D-AFD2-3766453F3175}" presName="hierRoot1" presStyleCnt="0">
@@ -1199,6 +1215,13 @@
     <dgm:pt modelId="{9F7D8E7D-3EB3-413F-98A4-D91892CB2BE2}" type="pres">
       <dgm:prSet presAssocID="{E1749B6D-43CE-484D-AFD2-3766453F3175}" presName="rootConnector1" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EC8AED73-D02A-494C-BD6F-3914DEC201A3}" type="pres">
       <dgm:prSet presAssocID="{E1749B6D-43CE-484D-AFD2-3766453F3175}" presName="hierChild2" presStyleCnt="0"/>
@@ -1207,6 +1230,13 @@
     <dgm:pt modelId="{F8A47D3E-CD84-48E1-9D78-C42BAF2F394A}" type="pres">
       <dgm:prSet presAssocID="{0031FC96-75DF-4A43-BCF5-B5AE16B0C8F4}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{39F0C7FF-2141-425D-A893-811E7284E487}" type="pres">
       <dgm:prSet presAssocID="{6CF512BD-B950-4CE5-9198-44AB2A87A68F}" presName="hierRoot2" presStyleCnt="0">
@@ -1238,6 +1268,13 @@
     <dgm:pt modelId="{8D82C4C6-B5F9-42E2-8A1E-E3B2075F2895}" type="pres">
       <dgm:prSet presAssocID="{6CF512BD-B950-4CE5-9198-44AB2A87A68F}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8FBBDE5D-84D1-4D6F-8F01-EF03B313F608}" type="pres">
       <dgm:prSet presAssocID="{6CF512BD-B950-4CE5-9198-44AB2A87A68F}" presName="hierChild4" presStyleCnt="0"/>
@@ -1246,6 +1283,13 @@
     <dgm:pt modelId="{30031C5D-BCAD-4969-A5F9-CA850B6BD844}" type="pres">
       <dgm:prSet presAssocID="{FBCD8AA9-5A24-4489-B05A-55443465707D}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4835F7CD-1722-477C-BBE2-CCA1A2ECCAA4}" type="pres">
       <dgm:prSet presAssocID="{B6556595-A229-4905-9250-9335E4E1EAE2}" presName="hierRoot2" presStyleCnt="0">
@@ -1277,6 +1321,13 @@
     <dgm:pt modelId="{D1F84172-8259-4FDB-B83A-A783DFF0947B}" type="pres">
       <dgm:prSet presAssocID="{B6556595-A229-4905-9250-9335E4E1EAE2}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="1"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{871D78FF-67C5-41A7-8875-7B320E9AD25E}" type="pres">
       <dgm:prSet presAssocID="{B6556595-A229-4905-9250-9335E4E1EAE2}" presName="hierChild4" presStyleCnt="0"/>
@@ -1285,6 +1336,13 @@
     <dgm:pt modelId="{BA8248E7-7811-48EF-ADCE-BB22D0EB653A}" type="pres">
       <dgm:prSet presAssocID="{3AFC6D6F-60BA-4261-BF63-08B584AAE525}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8D5AEF30-429C-4C3B-9F2D-41A774818C19}" type="pres">
       <dgm:prSet presAssocID="{D02E1D0B-DC9D-4D53-BD06-4E662CB9007B}" presName="hierRoot2" presStyleCnt="0">
@@ -1299,7 +1357,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1D4CE000-FEC0-4CB0-98D7-2EF0F52E5D8B}" type="pres">
-      <dgm:prSet presAssocID="{D02E1D0B-DC9D-4D53-BD06-4E662CB9007B}" presName="rootText" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="3">
+      <dgm:prSet presAssocID="{D02E1D0B-DC9D-4D53-BD06-4E662CB9007B}" presName="rootText" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="3" custLinFactNeighborX="-410" custLinFactNeighborY="16415">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1316,6 +1374,13 @@
     <dgm:pt modelId="{23A63EF6-D9AF-47AA-9EAC-AC10AFDC6BF8}" type="pres">
       <dgm:prSet presAssocID="{D02E1D0B-DC9D-4D53-BD06-4E662CB9007B}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A91096BC-7232-4FE0-918C-21EF073BD5D9}" type="pres">
       <dgm:prSet presAssocID="{D02E1D0B-DC9D-4D53-BD06-4E662CB9007B}" presName="hierChild4" presStyleCnt="0"/>
@@ -1328,6 +1393,13 @@
     <dgm:pt modelId="{D351AE70-6DC3-4094-9B71-F8B819E570B9}" type="pres">
       <dgm:prSet presAssocID="{D70108F6-F0EB-40C0-8A67-CCB392A90622}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8DB56538-1B23-4490-9DE9-6E703635FC20}" type="pres">
       <dgm:prSet presAssocID="{64FA3C85-264B-4BFD-846B-CE96B4622A00}" presName="hierRoot2" presStyleCnt="0">
@@ -1342,7 +1414,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3B4FEAA1-934B-4934-BE2D-4478BBB541D0}" type="pres">
-      <dgm:prSet presAssocID="{64FA3C85-264B-4BFD-846B-CE96B4622A00}" presName="rootText" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="3" custLinFactNeighborX="4990" custLinFactNeighborY="7541">
+      <dgm:prSet presAssocID="{64FA3C85-264B-4BFD-846B-CE96B4622A00}" presName="rootText" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="3" custLinFactNeighborX="-1576" custLinFactNeighborY="9182">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1359,6 +1431,13 @@
     <dgm:pt modelId="{FCD89388-FD04-4CFB-B308-640BABB6E6C6}" type="pres">
       <dgm:prSet presAssocID="{64FA3C85-264B-4BFD-846B-CE96B4622A00}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{41703AF6-B3B4-4815-A364-3F45B519D8A0}" type="pres">
       <dgm:prSet presAssocID="{64FA3C85-264B-4BFD-846B-CE96B4622A00}" presName="hierChild4" presStyleCnt="0"/>
@@ -1371,6 +1450,13 @@
     <dgm:pt modelId="{AEFF427C-EBA4-4ABB-8A43-373EDE6A21C2}" type="pres">
       <dgm:prSet presAssocID="{77AA4515-0AF0-4F55-95E1-F08154EB1196}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4307F309-32A4-4E23-B347-979CA0920FA9}" type="pres">
       <dgm:prSet presAssocID="{4C340D24-A345-4319-87DB-74C189C9D5B5}" presName="hierRoot2" presStyleCnt="0">
@@ -1402,6 +1488,13 @@
     <dgm:pt modelId="{F00873DA-1A5B-4CA9-AB75-ED3FEDD54D7F}" type="pres">
       <dgm:prSet presAssocID="{4C340D24-A345-4319-87DB-74C189C9D5B5}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B10B9934-5CB5-44A2-AAC8-EBAD277E7277}" type="pres">
       <dgm:prSet presAssocID="{4C340D24-A345-4319-87DB-74C189C9D5B5}" presName="hierChild4" presStyleCnt="0"/>
@@ -1422,6 +1515,13 @@
     <dgm:pt modelId="{9BD1C7A6-8429-4AA4-A7DF-060E040EBB2C}" type="pres">
       <dgm:prSet presAssocID="{915E5CE4-24EC-450A-935B-506D5AF24CCB}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5FC93860-7B74-4E9F-B26D-955A337086EC}" type="pres">
       <dgm:prSet presAssocID="{5D205A43-D7F8-4FA3-A892-881B58145192}" presName="hierRoot2" presStyleCnt="0">
@@ -1442,10 +1542,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0084D9C3-D61C-4174-8D61-FF01B05A8BEF}" type="pres">
       <dgm:prSet presAssocID="{5D205A43-D7F8-4FA3-A892-881B58145192}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{AA9805B8-56FD-4B07-A77E-3614303CB989}" type="pres">
       <dgm:prSet presAssocID="{5D205A43-D7F8-4FA3-A892-881B58145192}" presName="hierChild4" presStyleCnt="0"/>
@@ -1458,6 +1572,13 @@
     <dgm:pt modelId="{A2F29D94-0040-4AEB-BB30-23815F572410}" type="pres">
       <dgm:prSet presAssocID="{5DA821FA-994A-4185-B8B9-06674FE912BE}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{98B8C9F5-1712-4D6C-8263-4E4CA6802B95}" type="pres">
       <dgm:prSet presAssocID="{3AB276A6-2912-4EF5-A680-E02344C84998}" presName="hierRoot2" presStyleCnt="0">
@@ -1478,10 +1599,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7CFBF750-DD6C-4DA5-AFEE-BC1311EA5AA5}" type="pres">
       <dgm:prSet presAssocID="{3AB276A6-2912-4EF5-A680-E02344C84998}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4D121066-BEA1-42D7-A517-965D651CE0EE}" type="pres">
       <dgm:prSet presAssocID="{3AB276A6-2912-4EF5-A680-E02344C84998}" presName="hierChild4" presStyleCnt="0"/>
@@ -1511,8 +1646,8 @@
     <dgm:cxn modelId="{A682EBB6-044D-48C6-AE13-5A5DF6A39F6F}" type="presOf" srcId="{64FA3C85-264B-4BFD-846B-CE96B4622A00}" destId="{FCD89388-FD04-4CFB-B308-640BABB6E6C6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{6E7A44EC-75A6-484F-9561-EB246C52E705}" srcId="{6CF512BD-B950-4CE5-9198-44AB2A87A68F}" destId="{B6556595-A229-4905-9250-9335E4E1EAE2}" srcOrd="0" destOrd="0" parTransId="{FBCD8AA9-5A24-4489-B05A-55443465707D}" sibTransId="{3766F405-46E5-4F16-850B-0805437AF3DC}"/>
     <dgm:cxn modelId="{57988903-E344-431C-90D7-918735F2D929}" type="presOf" srcId="{AEA7A2C1-FAC3-40A3-A524-1764A00B6682}" destId="{05DA346C-83FB-4242-97CB-0CFE43B5D7BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0E97B8E5-2C5D-4DAF-98E7-B9AAD1D40910}" type="presOf" srcId="{E1749B6D-43CE-484D-AFD2-3766453F3175}" destId="{92081960-4093-4BF7-BCBD-477068118D7B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4D00C9D0-371D-4D92-9F2F-017AA6A7AA67}" type="presOf" srcId="{B6556595-A229-4905-9250-9335E4E1EAE2}" destId="{88D2EC7A-EFBB-4138-9517-A49665263DA1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0E97B8E5-2C5D-4DAF-98E7-B9AAD1D40910}" type="presOf" srcId="{E1749B6D-43CE-484D-AFD2-3766453F3175}" destId="{92081960-4093-4BF7-BCBD-477068118D7B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{8D729B95-7627-4E69-8A6F-EB416A617DCD}" srcId="{AEA7A2C1-FAC3-40A3-A524-1764A00B6682}" destId="{E1749B6D-43CE-484D-AFD2-3766453F3175}" srcOrd="0" destOrd="0" parTransId="{03727ED2-8C52-448B-86BE-424D34FC2EF1}" sibTransId="{61AFCDC5-7AB5-42FB-AA69-10C8B8DFF6AB}"/>
     <dgm:cxn modelId="{8F3D0A86-55DD-40B8-ABFA-ED5032FF70C6}" type="presOf" srcId="{D70108F6-F0EB-40C0-8A67-CCB392A90622}" destId="{D351AE70-6DC3-4094-9B71-F8B819E570B9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E2B97B38-1629-48CF-A5D6-C25F2ABB9C9E}" type="presOf" srcId="{5D205A43-D7F8-4FA3-A892-881B58145192}" destId="{0084D9C3-D61C-4174-8D61-FF01B05A8BEF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -1523,10 +1658,10 @@
     <dgm:cxn modelId="{66C2A3AC-F06B-4453-9C49-8CE875FC5A27}" type="presOf" srcId="{B6556595-A229-4905-9250-9335E4E1EAE2}" destId="{D1F84172-8259-4FDB-B83A-A783DFF0947B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{35E0FBB6-6D61-4404-9BD1-50DC89323054}" srcId="{B6556595-A229-4905-9250-9335E4E1EAE2}" destId="{64FA3C85-264B-4BFD-846B-CE96B4622A00}" srcOrd="1" destOrd="0" parTransId="{D70108F6-F0EB-40C0-8A67-CCB392A90622}" sibTransId="{0B4C55F6-FA02-4CBD-B5B4-9E88B9D2BEC0}"/>
     <dgm:cxn modelId="{D2B58954-568D-4A90-89F7-D0D6FA956D1E}" type="presOf" srcId="{3AB276A6-2912-4EF5-A680-E02344C84998}" destId="{7CFBF750-DD6C-4DA5-AFEE-BC1311EA5AA5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E533FAC4-4FDE-459E-A7F3-256A8440F00D}" type="presOf" srcId="{E1749B6D-43CE-484D-AFD2-3766453F3175}" destId="{9F7D8E7D-3EB3-413F-98A4-D91892CB2BE2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{85A02BAA-29AD-4A50-8651-4DEF91C2FAC0}" type="presOf" srcId="{64FA3C85-264B-4BFD-846B-CE96B4622A00}" destId="{3B4FEAA1-934B-4934-BE2D-4478BBB541D0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{128E9E9F-C278-4456-9D7D-4B960C94DF4C}" type="presOf" srcId="{3AB276A6-2912-4EF5-A680-E02344C84998}" destId="{05BA7A6F-87DC-41D1-8CCA-7034BACE79EE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E533FAC4-4FDE-459E-A7F3-256A8440F00D}" type="presOf" srcId="{E1749B6D-43CE-484D-AFD2-3766453F3175}" destId="{9F7D8E7D-3EB3-413F-98A4-D91892CB2BE2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{54C93489-FD15-463B-BC45-787250AB77E1}" type="presOf" srcId="{FBCD8AA9-5A24-4489-B05A-55443465707D}" destId="{30031C5D-BCAD-4969-A5F9-CA850B6BD844}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{85A02BAA-29AD-4A50-8651-4DEF91C2FAC0}" type="presOf" srcId="{64FA3C85-264B-4BFD-846B-CE96B4622A00}" destId="{3B4FEAA1-934B-4934-BE2D-4478BBB541D0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{45D6A4EA-1AE2-4602-A9EE-B93D222C8458}" srcId="{B6556595-A229-4905-9250-9335E4E1EAE2}" destId="{D02E1D0B-DC9D-4D53-BD06-4E662CB9007B}" srcOrd="0" destOrd="0" parTransId="{3AFC6D6F-60BA-4261-BF63-08B584AAE525}" sibTransId="{763CB8CB-A19C-4F08-B74C-C4E41BB0925C}"/>
     <dgm:cxn modelId="{8AAEFED3-345F-44D2-8D09-35F9DA2976DB}" type="presOf" srcId="{915E5CE4-24EC-450A-935B-506D5AF24CCB}" destId="{9BD1C7A6-8429-4AA4-A7DF-060E040EBB2C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{221D9ACE-DBE9-4039-816E-03737672FFE7}" type="presParOf" srcId="{05DA346C-83FB-4242-97CB-0CFE43B5D7BF}" destId="{81AE46AD-1A9B-4F64-BD85-8148FF5C6CFF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -1613,8 +1748,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8286744" y="1405861"/>
-          <a:ext cx="3532228" cy="538044"/>
+          <a:off x="8286147" y="1392006"/>
+          <a:ext cx="3489220" cy="531493"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1628,13 +1763,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="251160"/>
+                <a:pt x="0" y="248102"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="3532228" y="251160"/>
+                <a:pt x="3489220" y="248102"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="3532228" y="538044"/>
+                <a:pt x="3489220" y="531493"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1674,8 +1809,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8229139" y="1405861"/>
-          <a:ext cx="91440" cy="538031"/>
+          <a:off x="8228686" y="1392006"/>
+          <a:ext cx="91440" cy="531480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1686,16 +1821,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="57605" y="0"/>
+                <a:pt x="57460" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="57605" y="251146"/>
+                <a:pt x="57460" y="248088"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="45720" y="251146"/>
+                <a:pt x="45720" y="248088"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="45720" y="538031"/>
+                <a:pt x="45720" y="531480"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1735,8 +1870,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1778181" y="4515715"/>
-          <a:ext cx="1138464" cy="5338998"/>
+          <a:off x="1856831" y="4463994"/>
+          <a:ext cx="1124603" cy="5273991"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1750,10 +1885,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="5338998"/>
+                <a:pt x="0" y="5273991"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1138464" y="5338998"/>
+                <a:pt x="1124603" y="5273991"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1793,8 +1928,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1778181" y="4515715"/>
-          <a:ext cx="1274803" cy="3502133"/>
+          <a:off x="1856831" y="4463994"/>
+          <a:ext cx="1082067" cy="3481636"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1808,10 +1943,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3502133"/>
+                <a:pt x="0" y="3481636"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1274803" y="3502133"/>
+                <a:pt x="1082067" y="3481636"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1851,8 +1986,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1778181" y="4515715"/>
-          <a:ext cx="1138464" cy="1459230"/>
+          <a:off x="1856831" y="4463994"/>
+          <a:ext cx="1113537" cy="1662980"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1866,10 +2001,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1459230"/>
+                <a:pt x="0" y="1662980"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1138464" y="1459230"/>
+                <a:pt x="1113537" y="1662980"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1909,8 +2044,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2482327" y="3310022"/>
-          <a:ext cx="91440" cy="371364"/>
+          <a:off x="2551847" y="3272981"/>
+          <a:ext cx="91440" cy="366843"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1921,16 +2056,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="134982" y="0"/>
+                <a:pt x="133895" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="134982" y="84480"/>
+                <a:pt x="133895" y="83451"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="45720" y="84480"/>
+                <a:pt x="45720" y="83451"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="45720" y="371364"/>
+                <a:pt x="45720" y="366843"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1970,8 +2105,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2617309" y="1405861"/>
-          <a:ext cx="5669434" cy="538044"/>
+          <a:off x="2685742" y="1392006"/>
+          <a:ext cx="5600404" cy="531493"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1982,16 +2117,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="5669434" y="0"/>
+                <a:pt x="5600404" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="5669434" y="251160"/>
+                <a:pt x="5600404" y="248102"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="251160"/>
+                <a:pt x="0" y="248102"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="538044"/>
+                <a:pt x="0" y="531493"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2031,8 +2166,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6920628" y="39746"/>
-          <a:ext cx="2732231" cy="1366115"/>
+          <a:off x="6936665" y="42523"/>
+          <a:ext cx="2698964" cy="1349482"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2092,13 +2227,13 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="es-ES" sz="3200" kern="1200"/>
-            <a:t>LooKiero!</a:t>
+            <a:t>LOoKiero!</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6920628" y="39746"/>
-        <a:ext cx="2732231" cy="1366115"/>
+        <a:off x="6936665" y="42523"/>
+        <a:ext cx="2698964" cy="1349482"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6A07D2C5-51FC-478E-BAC0-2F40BCC9F2D1}">
@@ -2108,8 +2243,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1251193" y="1943906"/>
-          <a:ext cx="2732231" cy="1366115"/>
+          <a:off x="1336260" y="1923499"/>
+          <a:ext cx="2698964" cy="1349482"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2174,8 +2309,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1251193" y="1943906"/>
-        <a:ext cx="2732231" cy="1366115"/>
+        <a:off x="1336260" y="1923499"/>
+        <a:ext cx="2698964" cy="1349482"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{88D2EC7A-EFBB-4138-9517-A49665263DA1}">
@@ -2185,8 +2320,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1590714" y="3681387"/>
-          <a:ext cx="1874665" cy="834327"/>
+          <a:off x="1671647" y="3639824"/>
+          <a:ext cx="1851840" cy="824169"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2251,8 +2386,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1590714" y="3681387"/>
-        <a:ext cx="1874665" cy="834327"/>
+        <a:off x="1671647" y="3639824"/>
+        <a:ext cx="1851840" cy="824169"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1D4CE000-FEC0-4CB0-98D7-2EF0F52E5D8B}">
@@ -2262,8 +2397,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2916645" y="5291887"/>
-          <a:ext cx="2732231" cy="1366115"/>
+          <a:off x="2970368" y="5452233"/>
+          <a:ext cx="2698964" cy="1349482"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2328,8 +2463,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2916645" y="5291887"/>
-        <a:ext cx="2732231" cy="1366115"/>
+        <a:off x="2970368" y="5452233"/>
+        <a:ext cx="2698964" cy="1349482"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3B4FEAA1-934B-4934-BE2D-4478BBB541D0}">
@@ -2339,8 +2474,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3052984" y="7334790"/>
-          <a:ext cx="2732231" cy="1366115"/>
+          <a:off x="2938898" y="7270889"/>
+          <a:ext cx="2698964" cy="1349482"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2405,8 +2540,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3052984" y="7334790"/>
-        <a:ext cx="2732231" cy="1366115"/>
+        <a:off x="2938898" y="7270889"/>
+        <a:ext cx="2698964" cy="1349482"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D525D349-D7DD-47BA-9AF7-A25F21597C90}">
@@ -2416,8 +2551,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2916645" y="9171656"/>
-          <a:ext cx="2732231" cy="1366115"/>
+          <a:off x="2981434" y="9063244"/>
+          <a:ext cx="2698964" cy="1349482"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2482,8 +2617,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2916645" y="9171656"/>
-        <a:ext cx="2732231" cy="1366115"/>
+        <a:off x="2981434" y="9063244"/>
+        <a:ext cx="2698964" cy="1349482"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6706CB06-7B18-491C-8672-8E18E2C11DD2}">
@@ -2493,8 +2628,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6908743" y="1943892"/>
-          <a:ext cx="2732231" cy="1366115"/>
+          <a:off x="6924924" y="1923486"/>
+          <a:ext cx="2698964" cy="1349482"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2556,8 +2691,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6908743" y="1943892"/>
-        <a:ext cx="2732231" cy="1366115"/>
+        <a:off x="6924924" y="1923486"/>
+        <a:ext cx="2698964" cy="1349482"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{05BA7A6F-87DC-41D1-8CCA-7034BACE79EE}">
@@ -2567,8 +2702,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10452857" y="1943906"/>
-          <a:ext cx="2732231" cy="1366115"/>
+          <a:off x="10425885" y="1923499"/>
+          <a:ext cx="2698964" cy="1349482"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2630,8 +2765,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10452857" y="1943906"/>
-        <a:ext cx="2732231" cy="1366115"/>
+        <a:off x="10425885" y="1923499"/>
+        <a:ext cx="2698964" cy="1349482"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -5116,14 +5251,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="AD26"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="35" zoomScaleNormal="35" workbookViewId="0">
-      <selection activeCell="AF32" sqref="AF32"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="F11" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="AD26" sqref="AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="26" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD26" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
